--- a/Experiment1/phy1051/data.xlsx
+++ b/Experiment1/phy1051/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\物理实验数据处理\PhysicsExperiment\Experiment1\phy1051\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PhisicsExperiment\Experiment1\phy1051\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C7DACE-FB16-447E-91B3-F424FC380DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C246A-C44E-4A4E-B012-C1FB3FAD1BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1051" sheetId="1" r:id="rId1"/>
@@ -136,26 +136,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,182 +433,181 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="15.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="7" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>23.5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <v>1.0184500000000001</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="2">
+        <v>1.0185</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1018.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1970.9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1428.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1560.9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1404.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1584.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1018.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1970.9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1428.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1560.9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1404.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1584.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1018.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1970.9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1428.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1560.9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1404.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1584.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2111.4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1487.7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1642.2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1497.7</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1632.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2111.1999999999998</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1488.5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1642.2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1498.5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1632.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2111.3000000000002</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1488.1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1642.2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1498.1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1632.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>180</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>1.531425</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>1.524575</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
